--- a/results/mod3.corrupt_salience.slopes.eff.COMB.xlsx
+++ b/results/mod3.corrupt_salience.slopes.eff.COMB.xlsx
@@ -422,25 +422,25 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.276500201069024</v>
+        <v>-0.276500359880164</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0624472524901364</v>
+        <v>0.0624467287112141</v>
       </c>
       <c r="E2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.39889456688317</v>
+        <v>-0.398893699106487</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.154105835254877</v>
+        <v>-0.154107020653841</v>
       </c>
       <c r="H2" t="n">
-        <v>-4.42774005329854</v>
+        <v>-4.42777973460938</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00000952255660262679</v>
+        <v>0.00000952080537786751</v>
       </c>
     </row>
     <row r="3">
@@ -451,25 +451,25 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0944233508765411</v>
+        <v>-0.0944233892801559</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0616115680283958</v>
+        <v>0.0616112165963422</v>
       </c>
       <c r="E3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.215179805243236</v>
+        <v>-0.215179154852683</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0263331034901541</v>
+        <v>0.0263323762923712</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.53255880183122</v>
+        <v>-1.53256816691008</v>
       </c>
       <c r="I3" t="n">
-        <v>0.125384598904924</v>
+        <v>0.125382289890016</v>
       </c>
     </row>
     <row r="4">
@@ -480,25 +480,25 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0.144544432821701</v>
+        <v>0.144544514534112</v>
       </c>
       <c r="D4" t="n">
-        <v>0.12438477031593</v>
+        <v>0.124384084525078</v>
       </c>
       <c r="E4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0992452372228091</v>
+        <v>-0.0992438113850264</v>
       </c>
       <c r="G4" t="n">
-        <v>0.388334102866211</v>
+        <v>0.388332840453251</v>
       </c>
       <c r="H4" t="n">
-        <v>1.16207500688843</v>
+        <v>1.16208207091776</v>
       </c>
       <c r="I4" t="n">
-        <v>0.245204998575719</v>
+        <v>0.245202129439553</v>
       </c>
     </row>
     <row r="5">
@@ -509,25 +509,25 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>0.239770581533933</v>
+        <v>0.239773750539771</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0712817180320153</v>
+        <v>0.0712811167369781</v>
       </c>
       <c r="E5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F5" t="n">
-        <v>0.100060981435044</v>
+        <v>0.100065328957499</v>
       </c>
       <c r="G5" t="n">
-        <v>0.379480181632822</v>
+        <v>0.379482172122043</v>
       </c>
       <c r="H5" t="n">
-        <v>3.36370373994413</v>
+        <v>3.36377657247596</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000769040488803423</v>
+        <v>0.000768837580792015</v>
       </c>
     </row>
     <row r="6">
@@ -538,25 +538,25 @@
         <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0638897337609554</v>
+        <v>0.063891222720406</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0538235343203848</v>
+        <v>0.0538232130103566</v>
       </c>
       <c r="E6" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0416024550276543</v>
+        <v>-0.0416003363121207</v>
       </c>
       <c r="G6" t="n">
-        <v>0.169381922549565</v>
+        <v>0.169382781752933</v>
       </c>
       <c r="H6" t="n">
-        <v>1.18702226763207</v>
+        <v>1.18705701772416</v>
       </c>
       <c r="I6" t="n">
-        <v>0.235218837269852</v>
+        <v>0.235205130918704</v>
       </c>
     </row>
     <row r="7">
@@ -567,25 +567,25 @@
         <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0435024417488538</v>
+        <v>-0.0435015764938156</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0795386237741645</v>
+        <v>0.0795380560760751</v>
       </c>
       <c r="E7" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.199395279726097</v>
+        <v>-0.19939330180325</v>
       </c>
       <c r="G7" t="n">
-        <v>0.11239039622839</v>
+        <v>0.112390148815619</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.546934805816744</v>
+        <v>-0.546927831027301</v>
       </c>
       <c r="I7" t="n">
-        <v>0.584423522450859</v>
+        <v>0.584428314431657</v>
       </c>
     </row>
   </sheetData>
